--- a/Descargas/R15_Corte De Apelaciones De San Miguel_Ingresos Corte_2020-Noviembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De San Miguel_Ingresos Corte_2020-Noviembre.xlsx
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
